--- a/Excel - Project 11.xlsx
+++ b/Excel - Project 11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bambooschool-my.sharepoint.com/personal/thuong_vo_bambooschool_edu_vn/Documents/2024 - 2025/2. CHUYÊN MÔN/MOS 2019/MOS Excel 2019/Project 11 MOS Excel 2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel\Excel2019_Project4_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{04664962-0948-43B3-A73C-9E0C8293659B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2C295EF-BB78-4573-8C3E-C8A1B3411CDE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B617401-6933-4D1A-A3DD-C7A3911D8FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="40" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <definedName name="Convertible">#REF!</definedName>
     <definedName name="Discount2008">[1]!Table1[[#All],[Discount 2008]]</definedName>
     <definedName name="Discount2009">[1]!Table1[[#All],[Discount 2009]]</definedName>
+    <definedName name="Increase">Products!$B$35</definedName>
     <definedName name="SUPPLIER_NAME" localSheetId="4">[2]!Table3[[#All],[NameLast]]</definedName>
     <definedName name="SUPPLIER_NAME" localSheetId="1">[2]!Table3[[#All],[NameLast]]</definedName>
     <definedName name="SUPPLIER_NAME" localSheetId="3">[2]!Table3[[#All],[NameLast]]</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="97">
   <si>
     <t>January</t>
   </si>
@@ -343,6 +344,12 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Projected Value</t>
+  </si>
+  <si>
+    <t>Increase</t>
   </si>
 </sst>
 </file>
@@ -351,7 +358,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -491,7 +498,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,7 +516,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -522,6 +529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -2070,9 +2078,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C15A714-DC3A-45F0-94F6-3757B4B09DEE}" name="Table6" displayName="Table6" ref="A2:J28" totalsRowShown="0">
-  <autoFilter ref="A2:J28" xr:uid="{5024BB86-FE58-4999-9656-F12F6B4F9E67}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1C15A714-DC3A-45F0-94F6-3757B4B09DEE}" name="Table6" displayName="Table6" ref="A2:K28" totalsRowShown="0">
+  <autoFilter ref="A2:K28" xr:uid="{5024BB86-FE58-4999-9656-F12F6B4F9E67}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B8C4720C-2191-45C2-A3A4-840C0DDFD9BE}" name="Make"/>
     <tableColumn id="2" xr3:uid="{679D1C26-3F3A-4D7B-8088-F38E8717EBF3}" name="Model"/>
     <tableColumn id="3" xr3:uid="{BF5096EC-4BB5-4961-9A2A-CD9D1C964F14}" name="Body"/>
@@ -2083,6 +2091,7 @@
     <tableColumn id="8" xr3:uid="{CFEC95A0-3575-463D-A03B-45373A8E103E}" name="Quantity Instock" dataDxfId="20"/>
     <tableColumn id="9" xr3:uid="{66B97998-3C5E-41BD-89BE-E191A530F93A}" name="Total" dataDxfId="19"/>
     <tableColumn id="10" xr3:uid="{C378F867-B310-4F05-95A5-842B160DFEE1}" name="Inspected"/>
+    <tableColumn id="11" xr3:uid="{AEF6848F-6C02-4DE7-BFEB-E738C1B15313}" name="Projected Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2432,27 +2441,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4BF3913-89A1-43F3-BA27-63F81C1B8747}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" customWidth="1"/>
     <col min="2" max="2" width="9.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.31640625" customWidth="1"/>
-    <col min="4" max="4" width="6.31640625" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.31640625" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="16.2265625" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
     <col min="9" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="10.76953125" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.5" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>71</v>
       </c>
@@ -2466,7 +2475,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2" spans="1:10" ht="15.5" thickTop="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2497,8 +2506,11 @@
       <c r="J2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2531,7 +2543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -2561,7 +2573,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2591,7 +2603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -2621,7 +2633,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2651,7 +2663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2681,7 +2693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -2711,7 +2723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2741,7 +2753,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -2771,7 +2783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2801,7 +2813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2831,7 +2843,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -2861,7 +2873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2891,7 +2903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -2921,7 +2933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2951,7 +2963,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2981,7 +2993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3011,7 +3023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -3071,7 +3083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3101,7 +3113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3191,7 +3203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -3221,7 +3233,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3251,7 +3263,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -3279,6 +3291,14 @@
       <c r="I28" s="2"/>
       <c r="J28" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="16">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -3300,21 +3320,21 @@
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" customWidth="1"/>
     <col min="2" max="2" width="9.54296875" customWidth="1"/>
-    <col min="3" max="3" width="10.31640625" customWidth="1"/>
-    <col min="4" max="4" width="6.31640625" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.31640625" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="6.26953125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="16.2265625" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
     <col min="9" max="9" width="14.54296875" customWidth="1"/>
-    <col min="10" max="10" width="10.76953125" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>71</v>
       </c>
@@ -3328,7 +3348,7 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="12">
         <v>45008</v>
       </c>
@@ -3342,7 +3362,7 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3374,7 +3394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3407,7 +3427,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3437,7 +3457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -3467,7 +3487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3497,7 +3517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -3527,7 +3547,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -3557,7 +3577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -3587,7 +3607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -3617,7 +3637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -3647,7 +3667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3677,7 +3697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -3707,7 +3727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -3737,7 +3757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -3767,7 +3787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -3797,7 +3817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -3827,7 +3847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -3857,7 +3877,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -3887,7 +3907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -3917,7 +3937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3947,7 +3967,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -3977,7 +3997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -4007,7 +4027,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -4037,7 +4057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -4067,7 +4087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -4097,7 +4117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -4127,7 +4147,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -4177,14 +4197,14 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.2265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.31640625" customWidth="1"/>
-    <col min="3" max="6" width="18.2265625" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="6" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>84</v>
       </c>
@@ -4193,7 +4213,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4210,7 +4230,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4227,7 +4247,7 @@
         <v>752000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4244,7 +4264,7 @@
         <v>334000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -4261,7 +4281,7 @@
         <v>1046000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4282,12 +4302,12 @@
         <v>2132000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -4304,7 +4324,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -4321,7 +4341,7 @@
         <v>1046000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4338,7 +4358,7 @@
         <v>981000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -4355,7 +4375,7 @@
         <v>637000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -4376,7 +4396,7 @@
         <v>2664000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>92</v>
       </c>
@@ -4403,17 +4423,17 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.08984375" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.2265625" customWidth="1"/>
-    <col min="5" max="5" width="10.2265625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" customWidth="1"/>
     <col min="6" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4422,7 +4442,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -4431,7 +4451,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -4440,7 +4460,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -4449,7 +4469,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -4458,7 +4478,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -4467,7 +4487,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>72</v>
       </c>
@@ -4478,7 +4498,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4487,7 +4507,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>73</v>
       </c>
@@ -4508,7 +4528,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -4527,7 +4547,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>1</v>
       </c>
@@ -4544,7 +4564,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>2</v>
       </c>
@@ -4563,7 +4583,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
@@ -4580,7 +4600,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
@@ -4599,7 +4619,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -4618,7 +4638,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -4635,7 +4655,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>7</v>
       </c>
@@ -4654,7 +4674,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -4671,7 +4691,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>9</v>
       </c>
@@ -4690,7 +4710,7 @@
       </c>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>10</v>
       </c>
@@ -4709,7 +4729,7 @@
       </c>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>4</v>
       </c>
@@ -4728,7 +4748,7 @@
       </c>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>5</v>
       </c>
@@ -4747,7 +4767,7 @@
       </c>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>6</v>
       </c>
@@ -4764,7 +4784,7 @@
       </c>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>7</v>
       </c>
@@ -4783,7 +4803,7 @@
       </c>
       <c r="G24" s="9"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>9</v>
       </c>
@@ -4802,7 +4822,7 @@
       </c>
       <c r="G25" s="9"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>10</v>
       </c>
@@ -4821,7 +4841,7 @@
       </c>
       <c r="G26" s="9"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -4840,7 +4860,7 @@
       </c>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>5</v>
       </c>
@@ -4859,7 +4879,7 @@
       </c>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>6</v>
       </c>
@@ -4876,7 +4896,7 @@
       </c>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>5</v>
       </c>
@@ -4895,7 +4915,7 @@
       </c>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>6</v>
       </c>
@@ -4912,7 +4932,7 @@
       </c>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>7</v>
       </c>
@@ -4931,7 +4951,7 @@
       </c>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>9</v>
       </c>
@@ -4950,7 +4970,7 @@
       </c>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>10</v>
       </c>
